--- a/data/trans_dic/P50_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>65,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,99%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>39,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>47,9%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>51,9%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>48,22%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,27; 59,57</t>
+          <t>43,53; 78,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,87; 54,04</t>
+          <t>36,59; 78,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 51,13</t>
+          <t>17,07; 53,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,32; 66,85</t>
+          <t>46,74; 86,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 57,56</t>
+          <t>13,19; 59,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,98; 50,42</t>
+          <t>36,77; 64,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,0; 53,53</t>
+          <t>27,46; 55,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,39; 42,33</t>
+          <t>30,34; 57,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,36; 55,62</t>
+          <t>25,23; 53,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,52; 49,44</t>
+          <t>42,09; 75,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,22; 49,83</t>
+          <t>44,78; 67,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 49,65</t>
+          <t>35,38; 63,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 51,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>39,94; 69,07</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>30,18; 62,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>38,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,03; 43,21</t>
+          <t>29,9; 48,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,5; 30,41</t>
+          <t>16,33; 29,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 29,72</t>
+          <t>15,74; 29,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,53; 34,9</t>
+          <t>20,66; 40,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 43,38</t>
+          <t>23,29; 39,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 37,62</t>
+          <t>29,63; 44,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,87; 42,7</t>
+          <t>23,64; 36,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,38; 40,57</t>
+          <t>27,3; 41,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,11; 40,92</t>
+          <t>25,34; 39,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,35; 32,73</t>
+          <t>29,42; 43,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,51; 34,66</t>
+          <t>32,03; 43,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 35,78</t>
+          <t>21,92; 31,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,08; 33,28</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 37,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 39,22</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 22,94</t>
+          <t>9,48; 22,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 23,84</t>
+          <t>10,11; 24,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 17,87</t>
+          <t>6,67; 18,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 19,46</t>
+          <t>7,38; 20,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 27,69</t>
+          <t>10,36; 24,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 20,24</t>
+          <t>14,81; 27,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,84; 24,64</t>
+          <t>9,29; 19,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 22,93</t>
+          <t>10,98; 22,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 23,79</t>
+          <t>11,29; 22,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 20,3</t>
+          <t>14,9; 27,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,53; 19,56</t>
+          <t>13,84; 22,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,68; 19,06</t>
+          <t>10,81; 19,05</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 18,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 19,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 23,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1274,1725 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 35,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,45; 32,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 38,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 35,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,7; 35,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,86; 30,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,46; 30,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32,66%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27,22; 40,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 32,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 25,61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 38,8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 32,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27,51; 36,52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20,83; 29,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 32,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 31,87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 40,95</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28,73; 36,58</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,8; 29,48</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20,75; 27,58</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 32,25</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 35,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61616</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70853</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36197</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>73278</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64605</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58020</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59121</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49289</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47306</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>124212</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>119636</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>129973</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>85485</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>120584</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>188817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44095; 79171</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47161; 101113</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17575; 54583</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>52238; 96765</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23425; 105049</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>41676; 73245</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39121; 79018</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>34430; 65250</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30423; 65061</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90053; 160771</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>96115; 145736</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>96012; 172006</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>57974; 111010</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>92793; 160460</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>118168; 244674</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>138662</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>95279</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>83062</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115834</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>154447</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>142706</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>138796</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>125747</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>118048</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>176461</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>281368</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>234074</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>208809</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>233882</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>330908</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>107786; 176599</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>69103; 126509</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58670; 110894</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82553; 161568</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>117615; 199370</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>114682; 170819</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>109089; 170650</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>101615; 154607</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>94018; 146602</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>143123; 214003</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>239434; 328365</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>193940; 281848</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>171938; 247930</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>190569; 288498</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>278137; 388871</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43975</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53002</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32333</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36278</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56334</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73759</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60456</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56755</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54882</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83236</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>117733</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113457</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>89088</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>91160</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>139570</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27108; 64961</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33652; 80392</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18836; 52357</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20325; 57114</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36611; 85455</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>52897; 97803</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39784; 84325</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37859; 76055</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36788; 73999</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>59020; 107728</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>89037; 147162</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82259; 145060</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>65898; 118128</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>67306; 117396</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>109033; 175783</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>244253</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>219133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>151592</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>225390</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>275386</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>274485</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>258372</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>231791</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>220237</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>383909</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>518738</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>477505</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>383382</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>445627</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>659295</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>203572; 305903</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>173793; 286688</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>120750; 194177</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>176946; 305196</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>212141; 339383</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>235892; 313190</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>215056; 303423</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>198148; 271781</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>187130; 260562</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>324920; 449159</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>461170; 587229</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>417985; 565249</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>329666; 438087</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>383431; 517318</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>571629; 752829</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
